--- a/CRONOGRAMA.xlsx
+++ b/CRONOGRAMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fausto Armas\Documents\6°SEMESTRE\LENGUAJES Y AUTOMATAS\PROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517461AD-E8FB-4418-BD50-AD71E0262149}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8116B5E0-D652-4592-B9A9-B274E59416E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="12240" xr2:uid="{8583871B-63ED-41E5-873F-2BF4D53A8526}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="12240" activeTab="1" xr2:uid="{8583871B-63ED-41E5-873F-2BF4D53A8526}"/>
   </bookViews>
   <sheets>
     <sheet name="ESPAÑOL" sheetId="1" r:id="rId1"/>
@@ -962,15 +962,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,39 +969,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1584,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470BF7A2-BA43-4E23-AF5F-48E4FD56793E}">
   <dimension ref="B7:U67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70"/>
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AD35" sqref="AD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,23 +1608,23 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="2:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
@@ -1649,303 +1649,303 @@
       <c r="T8" s="14"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="18">
         <v>181080030</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="18">
         <v>181080007</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="18">
         <v>181080022</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="18">
         <v>181080037</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
     </row>
     <row r="20" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
     </row>
     <row r="21" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="6">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="3">
         <v>3</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="3">
         <v>4</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="3">
         <v>5</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="3">
         <v>6</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="3">
         <v>7</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="3">
         <v>8</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="3">
         <v>9</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="3">
         <v>10</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="3">
         <v>11</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="3">
         <v>12</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="3">
         <v>13</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="3">
         <v>14</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="3">
         <v>15</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
+      <c r="B22" s="20">
         <v>1</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="19" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1963,8 +1963,8 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1986,16 +1986,16 @@
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
+      <c r="B24" s="20">
         <v>2</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2013,8 +2013,8 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="1" t="s">
         <v>4</v>
       </c>
@@ -2036,17 +2036,17 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
+      <c r="B26" s="20">
         <v>3</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2063,8 +2063,8 @@
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="1" t="s">
         <v>4</v>
       </c>
@@ -2086,17 +2086,17 @@
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
+      <c r="B28" s="20">
         <v>4</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2113,8 +2113,8 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="1" t="s">
         <v>4</v>
       </c>
@@ -2136,17 +2136,17 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
+      <c r="B30" s="20">
         <v>5</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2163,8 +2163,8 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="13"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="1" t="s">
         <v>4</v>
       </c>
@@ -2186,17 +2186,17 @@
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="4">
+      <c r="B32" s="20">
         <v>6</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="4"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2213,8 +2213,8 @@
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2236,10 +2236,10 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
+      <c r="B34" s="20">
         <v>7</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="7"/>
+      <c r="G34" s="4"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2263,8 +2263,8 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="13"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="1" t="s">
         <v>4</v>
       </c>
@@ -2286,10 +2286,10 @@
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="4">
+      <c r="B36" s="20">
         <v>8</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="19" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -2298,7 +2298,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="7"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -2313,8 +2313,8 @@
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="C37" s="13"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="1" t="s">
         <v>4</v>
       </c>
@@ -2336,10 +2336,10 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="4">
+      <c r="B38" s="20">
         <v>9</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -2349,7 +2349,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="7"/>
+      <c r="I38" s="4"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2363,8 +2363,8 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="C39" s="13"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="1" t="s">
         <v>4</v>
       </c>
@@ -2386,10 +2386,10 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="4">
+      <c r="B40" s="20">
         <v>10</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="19" t="s">
         <v>42</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -2400,7 +2400,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="7"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2413,8 +2413,8 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" s="13"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="1" t="s">
         <v>4</v>
       </c>
@@ -2436,10 +2436,10 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="4">
+      <c r="B42" s="20">
         <v>11</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -2451,7 +2451,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="7"/>
+      <c r="K42" s="4"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -2463,8 +2463,8 @@
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="C43" s="13"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="1" t="s">
         <v>4</v>
       </c>
@@ -2486,10 +2486,10 @@
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="4">
+      <c r="B44" s="20">
         <v>12</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="19" t="s">
         <v>44</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -2502,7 +2502,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="7"/>
+      <c r="L44" s="4"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -2513,8 +2513,8 @@
       <c r="T44" s="1"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" s="13"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="1" t="s">
         <v>4</v>
       </c>
@@ -2536,10 +2536,10 @@
       <c r="T45" s="1"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="4">
+      <c r="B46" s="20">
         <v>13</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="19" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -2553,7 +2553,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="7"/>
+      <c r="M46" s="4"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -2563,8 +2563,8 @@
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-      <c r="C47" s="13"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="19"/>
       <c r="D47" s="1" t="s">
         <v>4</v>
       </c>
@@ -2586,10 +2586,10 @@
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="4">
+      <c r="B48" s="20">
         <v>14</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -2604,7 +2604,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="7"/>
+      <c r="N48" s="4"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -2613,8 +2613,8 @@
       <c r="T48" s="1"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
-      <c r="C49" s="13"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="1" t="s">
         <v>4</v>
       </c>
@@ -2636,10 +2636,10 @@
       <c r="T49" s="1"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="4">
+      <c r="B50" s="20">
         <v>15</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -2655,16 +2655,16 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
-      <c r="C51" s="13"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="1" t="s">
         <v>4</v>
       </c>
@@ -2686,10 +2686,10 @@
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B52" s="4">
+      <c r="B52" s="20">
         <v>16</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -2708,13 +2708,13 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-      <c r="R52" s="7"/>
+      <c r="R52" s="4"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="C53" s="13"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="19"/>
       <c r="D53" s="1" t="s">
         <v>4</v>
       </c>
@@ -2736,10 +2736,10 @@
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B54" s="4">
+      <c r="B54" s="20">
         <v>17</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -2759,12 +2759,12 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
-      <c r="S54" s="7"/>
+      <c r="S54" s="4"/>
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
-      <c r="C55" s="13"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="1" t="s">
         <v>4</v>
       </c>
@@ -2786,10 +2786,10 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B56" s="4">
+      <c r="B56" s="20">
         <v>18</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="19" t="s">
         <v>50</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -2810,11 +2810,11 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
-      <c r="T56" s="7"/>
+      <c r="T56" s="4"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B57" s="4"/>
-      <c r="C57" s="13"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="1" t="s">
         <v>4</v>
       </c>
@@ -2836,10 +2836,10 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B58" s="4">
+      <c r="B58" s="20">
         <v>19</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="19" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -2860,11 +2860,11 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
-      <c r="T58" s="7"/>
+      <c r="T58" s="4"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
-      <c r="C59" s="13"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="1" t="s">
         <v>4</v>
       </c>
@@ -2886,75 +2886,109 @@
       <c r="T59" s="1"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D61" s="22"/>
+      <c r="D61" s="17"/>
     </row>
     <row r="62" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="18"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="18"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="18"/>
+      <c r="D66" s="15"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D67" s="18"/>
+      <c r="D67" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="E20:T20"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
     <mergeCell ref="C8:T8"/>
     <mergeCell ref="D62:D67"/>
     <mergeCell ref="C61:D61"/>
@@ -2964,45 +2998,11 @@
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
     <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
     <mergeCell ref="C20:D21"/>
     <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="E20:T20"/>
-    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -3014,7 +3014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3ADC4A-44EF-4D3C-A0C6-83D87C5958AF}">
   <dimension ref="A7:U67"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
@@ -3040,23 +3040,23 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
@@ -3081,307 +3081,307 @@
       <c r="T8" s="14"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="18">
         <v>181080030</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="18">
         <v>181080007</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="18">
         <v>181080022</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="18">
         <v>181080037</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="6">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="3">
         <v>3</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="3">
         <v>4</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="3">
         <v>5</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="3">
         <v>6</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="3">
         <v>7</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="3">
         <v>8</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="3">
         <v>9</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="3">
         <v>10</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="3">
         <v>11</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="3">
         <v>12</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="3">
         <v>13</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="3">
         <v>14</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="3">
         <v>15</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="3">
         <v>16</v>
       </c>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
+      <c r="B22" s="20">
         <v>1</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="19" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -3399,12 +3399,12 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -3422,16 +3422,16 @@
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
+      <c r="B24" s="20">
         <v>2</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -3449,12 +3449,12 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -3472,17 +3472,17 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
+      <c r="B26" s="20">
         <v>3</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -3499,13 +3499,13 @@
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="15"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -3522,17 +3522,17 @@
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
+      <c r="B28" s="20">
         <v>4</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -3549,13 +3549,13 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="15"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -3572,17 +3572,17 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
+      <c r="B30" s="20">
         <v>5</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -3599,13 +3599,13 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="13"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="15"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -3622,17 +3622,17 @@
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="4">
+      <c r="B32" s="20">
         <v>6</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="4"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -3649,13 +3649,13 @@
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="15"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -3672,10 +3672,10 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
+      <c r="B34" s="20">
         <v>7</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="7"/>
+      <c r="G34" s="4"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -3699,14 +3699,14 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="13"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="15"/>
+      <c r="G35" s="9"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -3722,10 +3722,10 @@
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="4">
+      <c r="B36" s="20">
         <v>8</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="19" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -3734,7 +3734,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="7"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -3749,15 +3749,15 @@
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="C37" s="13"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="15"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -3772,10 +3772,10 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="4">
+      <c r="B38" s="20">
         <v>9</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -3785,7 +3785,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="7"/>
+      <c r="I38" s="4"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -3799,8 +3799,8 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="C39" s="13"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="1" t="s">
         <v>4</v>
       </c>
@@ -3808,7 +3808,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="15"/>
+      <c r="I39" s="9"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -3822,10 +3822,10 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="4">
+      <c r="B40" s="20">
         <v>10</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="19" t="s">
         <v>42</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -3836,7 +3836,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="7"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -3849,8 +3849,8 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" s="13"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="1" t="s">
         <v>4</v>
       </c>
@@ -3859,7 +3859,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="15"/>
+      <c r="J41" s="9"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -3872,10 +3872,10 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="4">
+      <c r="B42" s="20">
         <v>11</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -3887,7 +3887,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="7"/>
+      <c r="K42" s="4"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -3899,8 +3899,8 @@
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="C43" s="13"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="1" t="s">
         <v>4</v>
       </c>
@@ -3910,7 +3910,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="15"/>
+      <c r="K43" s="9"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -3922,10 +3922,10 @@
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="4">
+      <c r="B44" s="20">
         <v>12</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="19" t="s">
         <v>44</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -3938,7 +3938,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="7"/>
+      <c r="L44" s="4"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -3949,8 +3949,8 @@
       <c r="T44" s="1"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" s="13"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="1" t="s">
         <v>4</v>
       </c>
@@ -3961,7 +3961,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="15"/>
+      <c r="L45" s="9"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -3972,10 +3972,10 @@
       <c r="T45" s="1"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="4">
+      <c r="B46" s="20">
         <v>13</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="19" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -3989,7 +3989,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="7"/>
+      <c r="M46" s="4"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -3999,8 +3999,8 @@
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-      <c r="C47" s="13"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="19"/>
       <c r="D47" s="1" t="s">
         <v>4</v>
       </c>
@@ -4012,7 +4012,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="15"/>
+      <c r="M47" s="9"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -4022,10 +4022,10 @@
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="4">
+      <c r="B48" s="20">
         <v>14</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -4040,7 +4040,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="7"/>
+      <c r="N48" s="4"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -4049,8 +4049,8 @@
       <c r="T48" s="1"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
-      <c r="C49" s="13"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="1" t="s">
         <v>4</v>
       </c>
@@ -4063,8 +4063,8 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -4072,10 +4072,10 @@
       <c r="T49" s="1"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="4">
+      <c r="B50" s="20">
         <v>15</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -4091,16 +4091,16 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
-      <c r="C51" s="13"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="1" t="s">
         <v>4</v>
       </c>
@@ -4114,18 +4114,18 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B52" s="4">
+      <c r="B52" s="20">
         <v>16</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -4144,13 +4144,13 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-      <c r="R52" s="7"/>
+      <c r="R52" s="4"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="C53" s="13"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="19"/>
       <c r="D53" s="1" t="s">
         <v>4</v>
       </c>
@@ -4167,15 +4167,15 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
-      <c r="R53" s="15"/>
+      <c r="R53" s="9"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B54" s="4">
+      <c r="B54" s="20">
         <v>17</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -4195,12 +4195,12 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
-      <c r="S54" s="7"/>
+      <c r="S54" s="4"/>
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
-      <c r="C55" s="13"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="1" t="s">
         <v>4</v>
       </c>
@@ -4218,14 +4218,14 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
-      <c r="S55" s="15"/>
+      <c r="S55" s="9"/>
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B56" s="4">
+      <c r="B56" s="20">
         <v>18</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="19" t="s">
         <v>50</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -4246,11 +4246,11 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
-      <c r="T56" s="7"/>
+      <c r="T56" s="4"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B57" s="4"/>
-      <c r="C57" s="13"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="1" t="s">
         <v>4</v>
       </c>
@@ -4269,13 +4269,13 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
-      <c r="T57" s="15"/>
+      <c r="T57" s="9"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B58" s="4">
+      <c r="B58" s="20">
         <v>19</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="19" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -4296,11 +4296,11 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
-      <c r="T58" s="7"/>
+      <c r="T58" s="4"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
-      <c r="C59" s="13"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="1" t="s">
         <v>4</v>
       </c>
@@ -4319,54 +4319,92 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
-      <c r="T59" s="15"/>
+      <c r="T59" s="9"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D61" s="22"/>
+      <c r="D61" s="17"/>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="18"/>
+      <c r="D63" s="15"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="18"/>
+      <c r="D64" s="15"/>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="18"/>
+      <c r="D65" s="15"/>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="18"/>
+      <c r="D66" s="15"/>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D67" s="18"/>
+      <c r="D67" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:T20"/>
+    <mergeCell ref="C8:T8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="C61:D61"/>
@@ -4377,44 +4415,6 @@
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C8:T8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:T20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4452,345 +4452,345 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="18">
         <v>181080030</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="18">
         <v>181080007</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="18">
         <v>181080022</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="18">
         <v>181080037</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="6">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="3">
         <v>3</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="3">
         <v>4</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="3">
         <v>5</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="3">
         <v>6</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="3">
         <v>7</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="3">
         <v>8</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="3">
         <v>9</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="3">
         <v>10</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="3">
         <v>11</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="3">
         <v>12</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="3">
         <v>13</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="3">
         <v>14</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="3">
         <v>15</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="3">
         <v>16</v>
       </c>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
+      <c r="B22" s="20">
         <v>1</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -4808,8 +4808,8 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="1" t="s">
         <v>32</v>
       </c>
@@ -4831,16 +4831,16 @@
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
+      <c r="B24" s="20">
         <v>2</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -4858,8 +4858,8 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="1" t="s">
         <v>32</v>
       </c>
@@ -4881,17 +4881,17 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
+      <c r="B26" s="20">
         <v>3</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="23" t="s">
         <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -4908,8 +4908,8 @@
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="1" t="s">
         <v>32</v>
       </c>
@@ -4931,17 +4931,17 @@
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
+      <c r="B28" s="20">
         <v>4</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -4958,8 +4958,8 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="24"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="1" t="s">
         <v>32</v>
       </c>
@@ -4981,17 +4981,17 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
+      <c r="B30" s="20">
         <v>5</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="21" t="s">
         <v>63</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -5008,8 +5008,8 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="1" t="s">
         <v>32</v>
       </c>
@@ -5031,17 +5031,17 @@
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="4">
+      <c r="B32" s="20">
         <v>6</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="4"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -5058,8 +5058,8 @@
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="24"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="1" t="s">
         <v>32</v>
       </c>
@@ -5081,10 +5081,10 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
+      <c r="B34" s="20">
         <v>7</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="7"/>
+      <c r="G34" s="4"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -5108,8 +5108,8 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="1" t="s">
         <v>32</v>
       </c>
@@ -5131,10 +5131,10 @@
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="4">
+      <c r="B36" s="20">
         <v>8</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -5143,7 +5143,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="7"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -5158,8 +5158,8 @@
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="C37" s="24"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="1" t="s">
         <v>32</v>
       </c>
@@ -5181,10 +5181,10 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="4">
+      <c r="B38" s="20">
         <v>9</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -5194,7 +5194,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="7"/>
+      <c r="I38" s="4"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -5208,8 +5208,8 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="C39" s="24"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="1" t="s">
         <v>32</v>
       </c>
@@ -5231,10 +5231,10 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="4">
+      <c r="B40" s="20">
         <v>10</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -5245,7 +5245,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="7"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -5258,8 +5258,8 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" s="24"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="1" t="s">
         <v>32</v>
       </c>
@@ -5281,10 +5281,10 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="4">
+      <c r="B42" s="20">
         <v>11</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="21" t="s">
         <v>69</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -5296,7 +5296,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="7"/>
+      <c r="K42" s="4"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -5308,8 +5308,8 @@
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="C43" s="24"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="1" t="s">
         <v>32</v>
       </c>
@@ -5331,10 +5331,10 @@
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="4">
+      <c r="B44" s="20">
         <v>12</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -5347,7 +5347,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="7"/>
+      <c r="L44" s="4"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -5358,8 +5358,8 @@
       <c r="T44" s="1"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" s="24"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="1" t="s">
         <v>32</v>
       </c>
@@ -5381,10 +5381,10 @@
       <c r="T45" s="1"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="4">
+      <c r="B46" s="20">
         <v>13</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="21" t="s">
         <v>76</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -5398,7 +5398,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="7"/>
+      <c r="M46" s="4"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -5408,8 +5408,8 @@
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-      <c r="C47" s="24"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="1" t="s">
         <v>32</v>
       </c>
@@ -5431,10 +5431,10 @@
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="4">
+      <c r="B48" s="20">
         <v>14</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -5449,7 +5449,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="7"/>
+      <c r="N48" s="4"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -5458,8 +5458,8 @@
       <c r="T48" s="1"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
-      <c r="C49" s="24"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="1" t="s">
         <v>32</v>
       </c>
@@ -5481,10 +5481,10 @@
       <c r="T49" s="1"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="4">
+      <c r="B50" s="20">
         <v>15</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="21" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -5500,16 +5500,16 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
-      <c r="C51" s="24"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="1" t="s">
         <v>32</v>
       </c>
@@ -5531,10 +5531,10 @@
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B52" s="4">
+      <c r="B52" s="20">
         <v>16</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -5553,13 +5553,13 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-      <c r="R52" s="7"/>
+      <c r="R52" s="4"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="C53" s="24"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="1" t="s">
         <v>32</v>
       </c>
@@ -5581,10 +5581,10 @@
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B54" s="4">
+      <c r="B54" s="20">
         <v>17</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -5604,12 +5604,12 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
-      <c r="S54" s="7"/>
+      <c r="S54" s="4"/>
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
-      <c r="C55" s="24"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="1" t="s">
         <v>32</v>
       </c>
@@ -5631,10 +5631,10 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B56" s="4">
+      <c r="B56" s="20">
         <v>18</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="21" t="s">
         <v>74</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -5655,11 +5655,11 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
-      <c r="T56" s="7"/>
+      <c r="T56" s="4"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B57" s="4"/>
-      <c r="C57" s="24"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="1" t="s">
         <v>32</v>
       </c>
@@ -5681,10 +5681,10 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B58" s="4">
+      <c r="B58" s="20">
         <v>19</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -5705,11 +5705,11 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
-      <c r="T58" s="7"/>
+      <c r="T58" s="4"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
-      <c r="C59" s="24"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="1" t="s">
         <v>32</v>
       </c>
@@ -5731,61 +5731,75 @@
       <c r="T59" s="1"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D61" s="22"/>
+      <c r="D61" s="17"/>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="18"/>
+      <c r="D63" s="15"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D64" s="18"/>
+      <c r="D64" s="15"/>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="18"/>
+      <c r="D65" s="15"/>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D66" s="18"/>
+      <c r="D66" s="15"/>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D67" s="18"/>
+      <c r="D67" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:T20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
     <mergeCell ref="D62:D67"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C34:C35"/>
@@ -5793,36 +5807,22 @@
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C61:D61"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:T20"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5859,345 +5859,345 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="18">
         <v>181080030</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="18">
         <v>181080007</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="18">
         <v>181080022</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="18">
         <v>181080037</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="6">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="3">
         <v>3</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="3">
         <v>4</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="3">
         <v>5</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="3">
         <v>6</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="3">
         <v>7</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="3">
         <v>8</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="3">
         <v>9</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="3">
         <v>10</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="3">
         <v>11</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="3">
         <v>12</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="3">
         <v>13</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="3">
         <v>14</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="3">
         <v>15</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="3">
         <v>16</v>
       </c>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
+      <c r="B22" s="20">
         <v>1</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -6215,12 +6215,12 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -6238,16 +6238,16 @@
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
+      <c r="B24" s="20">
         <v>2</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -6265,12 +6265,12 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -6288,17 +6288,17 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
+      <c r="B26" s="20">
         <v>3</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="23" t="s">
         <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -6315,13 +6315,13 @@
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="15"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -6338,17 +6338,17 @@
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
+      <c r="B28" s="20">
         <v>4</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -6365,13 +6365,13 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="24"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="15"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -6388,17 +6388,17 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
+      <c r="B30" s="20">
         <v>5</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="21" t="s">
         <v>63</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -6415,13 +6415,13 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="15"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -6438,17 +6438,17 @@
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="4">
+      <c r="B32" s="20">
         <v>6</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="4"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -6465,13 +6465,13 @@
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="24"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="15"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -6488,10 +6488,10 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
+      <c r="B34" s="20">
         <v>7</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="7"/>
+      <c r="G34" s="4"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -6515,14 +6515,14 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="15"/>
+      <c r="G35" s="9"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -6538,10 +6538,10 @@
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="4">
+      <c r="B36" s="20">
         <v>8</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -6550,7 +6550,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="7"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -6565,15 +6565,15 @@
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="C37" s="24"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="15"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -6588,10 +6588,10 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="4">
+      <c r="B38" s="20">
         <v>9</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -6601,7 +6601,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="7"/>
+      <c r="I38" s="4"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -6615,8 +6615,8 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="C39" s="24"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="1" t="s">
         <v>32</v>
       </c>
@@ -6624,7 +6624,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="15"/>
+      <c r="I39" s="9"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -6638,10 +6638,10 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="4">
+      <c r="B40" s="20">
         <v>10</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -6652,7 +6652,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="7"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -6665,8 +6665,8 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" s="24"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="1" t="s">
         <v>32</v>
       </c>
@@ -6675,7 +6675,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="15"/>
+      <c r="J41" s="9"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -6688,10 +6688,10 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="4">
+      <c r="B42" s="20">
         <v>11</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="21" t="s">
         <v>69</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -6703,7 +6703,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="7"/>
+      <c r="K42" s="4"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -6715,8 +6715,8 @@
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="C43" s="24"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="1" t="s">
         <v>32</v>
       </c>
@@ -6726,7 +6726,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="15"/>
+      <c r="K43" s="9"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -6738,10 +6738,10 @@
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="4">
+      <c r="B44" s="20">
         <v>12</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -6754,7 +6754,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="7"/>
+      <c r="L44" s="4"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -6765,8 +6765,8 @@
       <c r="T44" s="1"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" s="24"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="1" t="s">
         <v>32</v>
       </c>
@@ -6777,7 +6777,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="15"/>
+      <c r="L45" s="9"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -6788,10 +6788,10 @@
       <c r="T45" s="1"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="4">
+      <c r="B46" s="20">
         <v>13</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="21" t="s">
         <v>76</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -6805,7 +6805,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="7"/>
+      <c r="M46" s="4"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -6815,8 +6815,8 @@
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-      <c r="C47" s="24"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="1" t="s">
         <v>32</v>
       </c>
@@ -6828,7 +6828,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="15"/>
+      <c r="M47" s="9"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -6838,10 +6838,10 @@
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="4">
+      <c r="B48" s="20">
         <v>14</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -6856,7 +6856,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="7"/>
+      <c r="N48" s="4"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -6865,8 +6865,8 @@
       <c r="T48" s="1"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
-      <c r="C49" s="24"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="1" t="s">
         <v>32</v>
       </c>
@@ -6879,8 +6879,8 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -6888,10 +6888,10 @@
       <c r="T49" s="1"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="4">
+      <c r="B50" s="20">
         <v>15</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="21" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -6907,16 +6907,16 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
-      <c r="C51" s="24"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="1" t="s">
         <v>32</v>
       </c>
@@ -6930,18 +6930,18 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B52" s="4">
+      <c r="B52" s="20">
         <v>16</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -6960,13 +6960,13 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-      <c r="R52" s="7"/>
+      <c r="R52" s="4"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="C53" s="24"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="1" t="s">
         <v>32</v>
       </c>
@@ -6983,15 +6983,15 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
-      <c r="R53" s="15"/>
+      <c r="R53" s="9"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B54" s="4">
+      <c r="B54" s="20">
         <v>17</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -7011,12 +7011,12 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
-      <c r="S54" s="7"/>
+      <c r="S54" s="4"/>
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
-      <c r="C55" s="24"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="1" t="s">
         <v>32</v>
       </c>
@@ -7034,14 +7034,14 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
-      <c r="S55" s="15"/>
+      <c r="S55" s="9"/>
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B56" s="4">
+      <c r="B56" s="20">
         <v>18</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="21" t="s">
         <v>74</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -7062,11 +7062,11 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
-      <c r="T56" s="7"/>
+      <c r="T56" s="4"/>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B57" s="4"/>
-      <c r="C57" s="24"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="1" t="s">
         <v>32</v>
       </c>
@@ -7085,13 +7085,13 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
-      <c r="T57" s="15"/>
+      <c r="T57" s="9"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B58" s="4">
+      <c r="B58" s="20">
         <v>19</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -7112,11 +7112,11 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
-      <c r="T58" s="7"/>
+      <c r="T58" s="4"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
-      <c r="C59" s="24"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="1" t="s">
         <v>32</v>
       </c>
@@ -7135,54 +7135,91 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
-      <c r="T59" s="15"/>
+      <c r="T59" s="9"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D61" s="22"/>
+      <c r="D61" s="17"/>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="18"/>
+      <c r="D63" s="15"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D64" s="18"/>
+      <c r="D64" s="15"/>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="18"/>
+      <c r="D65" s="15"/>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D66" s="18"/>
+      <c r="D66" s="15"/>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D67" s="18"/>
+      <c r="D67" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:T20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="C61:D61"/>
@@ -7193,43 +7230,6 @@
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:T20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
